--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F96181-76BA-4A0C-B834-DF905A5B87D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739C524-F59D-4C74-B44D-D1E7D1720827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
@@ -403,27 +403,7 @@
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -757,7 +737,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+      <selection activeCell="B2" sqref="B2:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,1197 +806,553 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1">
-        <v>4450</v>
-      </c>
-      <c r="C2" s="1">
-        <v>89</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>89</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1">
-        <v>1810</v>
-      </c>
-      <c r="C3" s="1">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="1">
-        <v>1220</v>
-      </c>
-      <c r="C4" s="1">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1">
-        <v>1210</v>
-      </c>
-      <c r="C5" s="1">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="1">
-        <v>850</v>
-      </c>
-      <c r="C6" s="1">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1">
-        <v>790</v>
-      </c>
-      <c r="C7" s="1">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
-        <v>780</v>
-      </c>
-      <c r="C8" s="1">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1">
-        <v>760</v>
-      </c>
-      <c r="C9" s="1">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1">
-        <v>620</v>
-      </c>
-      <c r="C10" s="1">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1">
-        <v>560</v>
-      </c>
-      <c r="C11" s="1">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1">
-        <v>520</v>
-      </c>
-      <c r="C12" s="1">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1">
-        <v>410</v>
-      </c>
-      <c r="C13" s="1">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="1">
-        <v>360</v>
-      </c>
-      <c r="C14" s="1">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="1">
-        <v>330</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="1">
-        <v>310</v>
-      </c>
-      <c r="C16" s="1">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>290</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="1">
-        <v>220</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="1">
-        <v>210</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="1">
-        <v>200</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="1">
-        <v>160</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="1">
-        <v>140</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="1">
-        <v>120</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="1">
-        <v>120</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
-        <v>110</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="1">
-        <v>100</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="1">
-        <v>90</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1">
-        <v>90</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="1">
-        <v>80</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="1">
-        <v>80</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="1">
-        <v>70</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="1">
-        <v>70</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="1">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="1">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="1">
-        <v>50</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="1">
-        <v>50</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="1">
-        <v>50</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="1">
-        <v>50</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="1">
-        <v>40</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="1">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="1">
-        <v>30</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="1">
-        <v>20</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="1">
-        <v>20</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="1">
-        <v>20</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="1">
-        <v>20</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="1">
-        <v>20</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -3449,10 +2785,10 @@
     <sortCondition descending="1" ref="B2:B102"/>
   </sortState>
   <conditionalFormatting sqref="B2:H101">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739C524-F59D-4C74-B44D-D1E7D1720827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC8181B-1430-48F0-825C-80DA984B3D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDABA927-A938-4F24-8053-A4194B1C04A2}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H47"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,563 +806,1207 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="1">
+        <v>4450</v>
+      </c>
+      <c r="C2" s="1">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>89</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="1">
+        <v>3090</v>
+      </c>
+      <c r="C3" s="1">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C4" s="1">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1290</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1220</v>
+      </c>
+      <c r="C6" s="1">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1210</v>
+      </c>
+      <c r="C7" s="1">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="B8" s="1">
+        <v>1190</v>
+      </c>
+      <c r="C8" s="1">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B9" s="1">
+        <v>970</v>
+      </c>
+      <c r="C9" s="1">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="1">
+        <v>960</v>
+      </c>
+      <c r="C10" s="1">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B11" s="1">
+        <v>940</v>
+      </c>
+      <c r="C11" s="1">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="B12" s="1">
+        <v>920</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B13" s="1">
+        <v>890</v>
+      </c>
+      <c r="C13" s="1">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B14" s="1">
+        <v>820</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>790</v>
+      </c>
+      <c r="C15" s="1">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>740</v>
+      </c>
+      <c r="C16" s="1">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B17" s="1">
+        <v>700</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B18" s="1">
+        <v>440</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B19" s="1">
+        <v>430</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>390</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="B21" s="1">
+        <v>380</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>380</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="B23" s="1">
+        <v>370</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="B24" s="1">
+        <v>340</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <v>330</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="B26" s="1">
+        <v>330</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="B27" s="1">
+        <v>320</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B28" s="1">
+        <v>270</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="B29" s="1">
+        <v>240</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="B30" s="1">
+        <v>220</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="B31" s="1">
+        <v>210</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="B32" s="1">
+        <v>210</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B33" s="1">
+        <v>210</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="B34" s="1">
+        <v>210</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="B35" s="1">
+        <v>200</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>200</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="B37" s="1">
+        <v>200</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B38" s="1">
+        <v>200</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B39" s="1">
+        <v>160</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B40" s="1">
+        <v>160</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B41" s="1">
+        <v>130</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B42" s="1">
+        <v>130</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B43" s="1">
+        <v>120</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="B44" s="1">
+        <v>120</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B45" s="1">
+        <v>110</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="B46" s="1">
+        <v>100</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="B47" s="1">
+        <v>100</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -1371,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -1382,13 +2026,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -1397,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -1408,13 +2052,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -1423,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -1434,22 +2078,22 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -1460,13 +2104,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -1475,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -1486,22 +2130,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -1512,19 +2156,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -1538,19 +2182,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -1564,19 +2208,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -1590,19 +2234,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -1616,19 +2260,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -1642,13 +2286,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -1660,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -1668,13 +2312,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -1686,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -1694,13 +2338,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -1712,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -1720,13 +2364,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -1735,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -1746,13 +2390,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -1761,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -1772,16 +2416,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -1798,16 +2442,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B65" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -1824,16 +2468,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -1850,7 +2494,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1876,7 +2520,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -1902,7 +2546,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -1928,7 +2572,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -1954,7 +2598,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -1980,7 +2624,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -2006,7 +2650,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -2032,7 +2676,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -2058,7 +2702,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -2084,7 +2728,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -2110,7 +2754,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -2136,7 +2780,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -2162,7 +2806,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -2188,7 +2832,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -2214,7 +2858,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -2240,7 +2884,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -2266,7 +2910,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -2292,7 +2936,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -2318,7 +2962,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -2344,7 +2988,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -2370,7 +3014,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -2396,7 +3040,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -2422,7 +3066,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -2448,7 +3092,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -2474,7 +3118,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -2500,7 +3144,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -2526,7 +3170,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -2552,7 +3196,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -2578,7 +3222,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -2604,7 +3248,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -2630,7 +3274,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -2656,7 +3300,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -2682,7 +3326,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC8181B-1430-48F0-825C-80DA984B3D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070B148C-A4AA-45B9-99F6-2CCDA47F2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDABA927-A938-4F24-8053-A4194B1C04A2}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,25 +856,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>1400</v>
+        <v>1710</v>
       </c>
       <c r="C4" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>1290</v>
+        <v>1490</v>
       </c>
       <c r="C5" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -908,39 +908,39 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1">
-        <v>1220</v>
+        <v>1400</v>
       </c>
       <c r="C6" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
-        <v>1210</v>
+        <v>1400</v>
       </c>
       <c r="C7" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -949,50 +949,50 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1">
-        <v>1190</v>
+        <v>1220</v>
       </c>
       <c r="C8" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
-        <v>970</v>
+        <v>1210</v>
       </c>
       <c r="C9" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1001,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1015,19 +1015,19 @@
         <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>960</v>
+        <v>1170</v>
       </c>
       <c r="C10" s="1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1041,10 +1041,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="1">
-        <v>940</v>
+        <v>1100</v>
       </c>
       <c r="C11" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1">
         <v>6</v>
@@ -1064,25 +1064,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
-        <v>920</v>
+        <v>980</v>
       </c>
       <c r="C12" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1">
         <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1090,13 +1090,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
-        <v>890</v>
+        <v>970</v>
       </c>
       <c r="C13" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1116,25 +1116,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="C14" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1142,25 +1142,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
-        <v>790</v>
+        <v>890</v>
       </c>
       <c r="C15" s="1">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
         <v>21</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>16</v>
-      </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1168,22 +1168,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
-        <v>740</v>
+        <v>850</v>
       </c>
       <c r="C16" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1194,25 +1194,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1220,25 +1220,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1">
-        <v>440</v>
+        <v>720</v>
       </c>
       <c r="C18" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1246,25 +1246,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1272,22 +1272,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
-        <v>390</v>
+        <v>590</v>
       </c>
       <c r="C20" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1298,25 +1298,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1">
-        <v>380</v>
+        <v>560</v>
       </c>
       <c r="C21" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1324,22 +1324,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>380</v>
+        <v>560</v>
       </c>
       <c r="C22" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1350,25 +1350,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>370</v>
+        <v>480</v>
       </c>
       <c r="C23" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1376,25 +1376,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="C24" s="1">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>7</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1402,13 +1402,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="C25" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1428,22 +1428,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="C26" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
         <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1454,25 +1454,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="C27" s="1">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
         <v>8</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>6</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1480,25 +1480,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="C29" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -1532,25 +1532,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="C30" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -1558,13 +1558,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="C31" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -1584,25 +1584,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="C32" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1610,25 +1610,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="C33" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
         <v>3</v>
       </c>
-      <c r="F33" s="1">
-        <v>2</v>
-      </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -1636,25 +1636,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="C34" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -1662,25 +1662,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C35" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C36" s="1">
         <v>5</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -1714,22 +1714,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1740,25 +1740,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C38" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -1766,25 +1766,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C39" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -1792,25 +1792,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -1818,19 +1818,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="C41" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
@@ -1844,25 +1844,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>4</v>
       </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2</v>
-      </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -1870,25 +1870,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -1896,25 +1896,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C44" s="1">
         <v>5</v>
       </c>
       <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
         <v>3</v>
       </c>
-      <c r="E44" s="1">
-        <v>2</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -1922,22 +1922,22 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C45" s="1">
         <v>5</v>
       </c>
       <c r="D45" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -1948,22 +1948,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -1974,13 +1974,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -2000,13 +2000,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -2026,22 +2026,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B49" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C49" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -2067,36 +2067,36 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B51" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C51" s="1">
         <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -2104,19 +2104,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
@@ -2130,25 +2130,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B53" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1">
         <v>2</v>
       </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -2156,19 +2156,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1">
         <v>3</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -2182,22 +2182,22 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B55" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C55" s="1">
         <v>3</v>
       </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2208,22 +2208,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B56" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
         <v>2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>2</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
@@ -2246,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
         <v>2</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
@@ -2272,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>2</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2286,13 +2286,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -2312,25 +2312,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -2338,13 +2338,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B61" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -2353,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -2364,19 +2364,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
@@ -2390,22 +2390,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2416,19 +2416,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B64" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -2442,16 +2442,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -2468,16 +2468,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
@@ -2494,13 +2494,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2546,16 +2546,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -2572,16 +2572,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -2598,16 +2598,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070B148C-A4AA-45B9-99F6-2CCDA47F2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D25167-9D57-4911-93A7-FBBA4D32E2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,13 +804,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
-        <v>4450</v>
+        <v>4850</v>
       </c>
       <c r="C2" s="1">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -830,13 +830,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>3090</v>
+        <v>4450</v>
       </c>
       <c r="C3" s="1">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -845,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -856,25 +856,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
-        <v>1710</v>
+        <v>3000</v>
       </c>
       <c r="C4" s="1">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -882,22 +882,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>1490</v>
+        <v>2950</v>
       </c>
       <c r="C5" s="1">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -908,25 +908,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>1400</v>
+        <v>2740</v>
       </c>
       <c r="C6" s="1">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -934,13 +934,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
-        <v>1400</v>
+        <v>2470</v>
       </c>
       <c r="C7" s="1">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -960,28 +960,28 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1">
-        <v>1220</v>
+        <v>1850</v>
       </c>
       <c r="C8" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -989,10 +989,10 @@
         <v>27</v>
       </c>
       <c r="B9" s="1">
-        <v>1210</v>
+        <v>1680</v>
       </c>
       <c r="C9" s="1">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -1012,25 +1012,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
-        <v>1170</v>
+        <v>1380</v>
       </c>
       <c r="C10" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1038,25 +1038,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="C11" s="1">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1">
         <v>20</v>
       </c>
       <c r="G11" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1064,51 +1064,51 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1">
-        <v>980</v>
+        <v>1220</v>
       </c>
       <c r="C12" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>970</v>
+        <v>1170</v>
       </c>
       <c r="C13" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1116,22 +1116,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
-        <v>920</v>
+        <v>1150</v>
       </c>
       <c r="C14" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1">
-        <v>890</v>
+        <v>1120</v>
       </c>
       <c r="C15" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1168,25 +1168,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1">
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="C16" s="1">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>23</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1">
-        <v>16</v>
-      </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1194,25 +1194,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1">
-        <v>740</v>
+        <v>970</v>
       </c>
       <c r="C17" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1220,25 +1220,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1">
-        <v>720</v>
+        <v>950</v>
       </c>
       <c r="C18" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1246,25 +1246,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="C19" s="1">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
         <v>16</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>10</v>
-      </c>
       <c r="G19" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1272,51 +1272,51 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1">
-        <v>590</v>
+        <v>830</v>
       </c>
       <c r="C20" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
         <v>9</v>
       </c>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1">
-        <v>8</v>
-      </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="C21" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1324,22 +1324,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="C22" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1350,10 +1350,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="C23" s="1">
         <v>16</v>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1376,25 +1376,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
-        <v>450</v>
+        <v>660</v>
       </c>
       <c r="C24" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1402,22 +1402,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="C25" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1428,22 +1428,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="C26" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1454,13 +1454,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="C27" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G27" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1480,22 +1480,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="C28" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1506,25 +1506,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B29" s="1">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="C29" s="1">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
         <v>8</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>7</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="C30" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
         <v>5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1558,22 +1558,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="C31" s="1">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
         <v>7</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
       <c r="F31" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1584,22 +1584,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="C32" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="C33" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -1636,22 +1636,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="C34" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1662,22 +1662,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="C35" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1688,25 +1688,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="C36" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -1714,25 +1714,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="C37" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -1740,25 +1740,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="C38" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -1766,13 +1766,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B39" s="1">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="C39" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1781,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -1792,25 +1792,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -1818,25 +1818,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C41" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -1844,25 +1844,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="C42" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -1870,16 +1870,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C43" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
@@ -1896,25 +1896,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C44" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -1922,25 +1922,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C45" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -1948,25 +1948,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B46" s="1">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C46" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -1974,13 +1974,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -2000,25 +2000,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -2026,25 +2026,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C49" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B50" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C50" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -2067,36 +2067,36 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B51" s="1">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C51" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -2104,22 +2104,22 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C52" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2130,25 +2130,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C53" s="1">
         <v>4</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -2156,36 +2156,36 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C55" s="1">
         <v>3</v>
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
         <v>3</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -2208,22 +2208,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B56" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C56" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2234,25 +2234,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
       <c r="G57" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -2260,25 +2260,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B58" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C58" s="1">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -2286,13 +2286,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2312,22 +2312,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B60" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2338,13 +2338,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B61" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2364,22 +2364,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2390,51 +2390,51 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B63" s="1">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B64" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
         <v>2</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -2442,25 +2442,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B65" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -2468,13 +2468,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B66" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
@@ -2494,19 +2494,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B67" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -2546,16 +2546,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -2572,22 +2572,22 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B70" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -2598,22 +2598,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B72" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -2650,16 +2650,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B73" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -2676,16 +2676,16 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D25167-9D57-4911-93A7-FBBA4D32E2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277C6EFF-78C2-4C8F-8DED-9C0B235C0D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,25 +804,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
-        <v>4850</v>
+        <v>2950</v>
       </c>
       <c r="C2" s="1">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -830,13 +830,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>4450</v>
+        <v>2880</v>
       </c>
       <c r="C3" s="1">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -845,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -856,13 +856,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
-        <v>3000</v>
+        <v>2470</v>
       </c>
       <c r="C4" s="1">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -882,25 +882,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
-        <v>2950</v>
+        <v>2080</v>
       </c>
       <c r="C5" s="1">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>2740</v>
+        <v>1800</v>
       </c>
       <c r="C6" s="1">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -934,13 +934,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
-        <v>2470</v>
+        <v>1560</v>
       </c>
       <c r="C7" s="1">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -949,36 +949,36 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
-        <v>1850</v>
+        <v>1380</v>
       </c>
       <c r="C8" s="1">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -986,77 +986,77 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>1680</v>
+        <v>1180</v>
       </c>
       <c r="C9" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
-        <v>1380</v>
+        <v>1170</v>
       </c>
       <c r="C10" s="1">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
-        <v>1300</v>
+        <v>1170</v>
       </c>
       <c r="C11" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1064,51 +1064,51 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
-        <v>1220</v>
+        <v>1150</v>
       </c>
       <c r="C12" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
-        <v>1170</v>
+        <v>1020</v>
       </c>
       <c r="C13" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1116,22 +1116,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="C14" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1142,25 +1142,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
-        <v>1120</v>
+        <v>810</v>
       </c>
       <c r="C15" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1168,25 +1168,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>1020</v>
+        <v>800</v>
       </c>
       <c r="C16" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1194,51 +1194,51 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
-        <v>970</v>
+        <v>780</v>
       </c>
       <c r="C17" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1">
-        <v>950</v>
+        <v>730</v>
       </c>
       <c r="C18" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1246,25 +1246,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
-        <v>850</v>
+        <v>720</v>
       </c>
       <c r="C19" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1272,51 +1272,51 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="C20" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1">
-        <v>720</v>
+        <v>560</v>
       </c>
       <c r="C21" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1324,22 +1324,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>720</v>
+        <v>560</v>
       </c>
       <c r="C22" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="C23" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1376,25 +1376,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
-        <v>660</v>
+        <v>450</v>
       </c>
       <c r="C24" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1402,25 +1402,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="C25" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -1428,22 +1428,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1">
-        <v>560</v>
+        <v>430</v>
       </c>
       <c r="C26" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1454,13 +1454,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="C27" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1480,22 +1480,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C28" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1506,25 +1506,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>9</v>
       </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -1532,25 +1532,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="C30" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>8</v>
       </c>
-      <c r="F30" s="1">
-        <v>5</v>
-      </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -1558,22 +1558,22 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="C31" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1584,25 +1584,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="C32" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1610,22 +1610,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="C33" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -1636,22 +1636,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C34" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1662,19 +1662,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C35" s="1">
         <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -1688,22 +1688,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="C36" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1714,25 +1714,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="C37" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -1740,22 +1740,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="C38" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1766,22 +1766,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B39" s="1">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="C39" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1792,25 +1792,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C40" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -1818,25 +1818,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C41" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -1844,25 +1844,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -1870,22 +1870,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -1896,22 +1896,22 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C44" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -1922,19 +1922,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="C45" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
@@ -1948,39 +1948,39 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B46" s="1">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -2000,25 +2000,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
         <v>2</v>
       </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -2026,25 +2026,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B49" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
         <v>3</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2052,25 +2052,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -2078,22 +2078,22 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B51" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C51" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2104,22 +2104,22 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B52" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C52" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2130,22 +2130,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2156,51 +2156,51 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C54" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B55" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C55" s="1">
         <v>3</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -2208,22 +2208,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B56" s="1">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C56" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2234,19 +2234,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
@@ -2260,25 +2260,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B58" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>2</v>
       </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -2286,13 +2286,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C59" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2312,22 +2312,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B60" s="1">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2338,22 +2338,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2364,19 +2364,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B62" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -2385,18 +2385,18 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B63" s="1">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2419,10 +2419,10 @@
         <v>101</v>
       </c>
       <c r="B64" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -2442,25 +2442,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C65" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -2468,13 +2468,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B66" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2494,19 +2494,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B67" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -2546,10 +2546,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -2584,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -2598,22 +2598,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="B72" s="1">
         <v>20</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1">
         <v>20</v>
@@ -2676,16 +2676,16 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B74" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277C6EFF-78C2-4C8F-8DED-9C0B235C0D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C09ED-31EE-45C5-B021-BCFBDE6556FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$J$102</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -346,6 +349,12 @@
   </si>
   <si>
     <t>Durdan Poison</t>
+  </si>
+  <si>
+    <t>Level 20 Cursed Citadel</t>
+  </si>
+  <si>
+    <t>Level 25 Cursed Citadel</t>
   </si>
 </sst>
 </file>
@@ -403,7 +412,27 @@
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -734,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDABA927-A938-4F24-8053-A4194B1C04A2}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:H101"/>
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,8 +776,9 @@
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="18" bestFit="1" customWidth="1"/>
@@ -776,7 +806,7 @@
     <col min="87" max="87" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,432 +831,534 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6110</v>
+      </c>
+      <c r="C2" s="1">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4450</v>
+      </c>
+      <c r="C3" s="1">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3580</v>
+      </c>
+      <c r="C4" s="1">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3340</v>
+      </c>
+      <c r="C5" s="1">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B6" s="1">
         <v>2950</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C6" s="1">
         <v>75</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>6</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F6" s="1">
         <v>68</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2670</v>
+      </c>
+      <c r="C7" s="1">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2250</v>
+      </c>
+      <c r="C8" s="1">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1680</v>
+      </c>
+      <c r="C9" s="1">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1380</v>
+      </c>
+      <c r="C10" s="1">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1340</v>
+      </c>
+      <c r="C11" s="1">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C12" s="1">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1230</v>
+      </c>
+      <c r="C13" s="1">
         <v>36</v>
       </c>
-      <c r="B3" s="1">
-        <v>2880</v>
-      </c>
-      <c r="C3" s="1">
-        <v>65</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2470</v>
-      </c>
-      <c r="C4" s="1">
-        <v>55</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2080</v>
-      </c>
-      <c r="C5" s="1">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1220</v>
+      </c>
+      <c r="C14" s="1">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1170</v>
+      </c>
+      <c r="C15" s="1">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1">
+        <v>990</v>
+      </c>
+      <c r="C17" s="1">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>29</v>
       </c>
-      <c r="F5" s="1">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1800</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1560</v>
-      </c>
-      <c r="C7" s="1">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1380</v>
-      </c>
-      <c r="C8" s="1">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1180</v>
-      </c>
-      <c r="C9" s="1">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1170</v>
-      </c>
-      <c r="C10" s="1">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1170</v>
-      </c>
-      <c r="C11" s="1">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1150</v>
-      </c>
-      <c r="C12" s="1">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>22</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1020</v>
-      </c>
-      <c r="C13" s="1">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="1">
-        <v>950</v>
-      </c>
-      <c r="C14" s="1">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1">
-        <v>810</v>
-      </c>
-      <c r="C15" s="1">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1">
-        <v>800</v>
-      </c>
-      <c r="C16" s="1">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1">
-        <v>780</v>
-      </c>
-      <c r="C17" s="1">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>9</v>
-      </c>
       <c r="G17" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="1">
-        <v>730</v>
+        <v>970</v>
       </c>
       <c r="C18" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1243,299 +1375,371 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
-        <v>720</v>
+        <v>850</v>
       </c>
       <c r="C19" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
+        <v>830</v>
+      </c>
+      <c r="C20" s="1">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1">
-        <v>700</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>800</v>
+      </c>
+      <c r="C21" s="1">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="F21" s="1">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="1">
-        <v>560</v>
-      </c>
-      <c r="C21" s="1">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="B22" s="1">
-        <v>560</v>
+        <v>760</v>
       </c>
       <c r="C22" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="1">
         <v>14</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>720</v>
+      </c>
+      <c r="C23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1">
+        <v>700</v>
+      </c>
+      <c r="C24" s="1">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1">
+        <v>660</v>
+      </c>
+      <c r="C25" s="1">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>560</v>
+      </c>
+      <c r="C26" s="1">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <v>560</v>
+      </c>
+      <c r="C27" s="1">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B28" s="1">
         <v>540</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C28" s="1">
         <v>13</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>11</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G28" s="1">
         <v>2</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1">
-        <v>450</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1">
+        <v>480</v>
+      </c>
+      <c r="C29" s="1">
         <v>13</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B30" s="1">
         <v>440</v>
-      </c>
-      <c r="C25" s="1">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>8</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="1">
-        <v>430</v>
-      </c>
-      <c r="C26" s="1">
-        <v>15</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>7</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="1">
-        <v>420</v>
-      </c>
-      <c r="C27" s="1">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1">
-        <v>6</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="1">
-        <v>400</v>
-      </c>
-      <c r="C28" s="1">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1">
-        <v>4</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1">
-        <v>380</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>9</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="1">
-        <v>370</v>
       </c>
       <c r="C30" s="1">
         <v>9</v>
@@ -1547,33 +1751,39 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
         <v>8</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="C31" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1581,337 +1791,415 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="C32" s="1">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
         <v>7</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
       <c r="F32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1">
+        <v>380</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1">
+        <v>380</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>3</v>
       </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1">
-        <v>300</v>
-      </c>
-      <c r="C33" s="1">
-        <v>11</v>
-      </c>
-      <c r="D33" s="1">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1">
-        <v>280</v>
-      </c>
-      <c r="C34" s="1">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="1">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C35" s="1">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>340</v>
+      </c>
+      <c r="C36" s="1">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1">
+        <v>340</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1">
+        <v>330</v>
+      </c>
+      <c r="C38" s="1">
         <v>11</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="1">
+        <v>330</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1">
         <v>5</v>
       </c>
-      <c r="E35" s="1">
-        <v>6</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="1">
-        <v>250</v>
-      </c>
-      <c r="C36" s="1">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="E39" s="1">
         <v>5</v>
       </c>
-      <c r="E36" s="1">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="1">
-        <v>240</v>
-      </c>
-      <c r="C37" s="1">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="1">
-        <v>230</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1">
+        <v>330</v>
+      </c>
+      <c r="C40" s="1">
         <v>8</v>
       </c>
-      <c r="D38" s="1">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="1">
-        <v>230</v>
-      </c>
-      <c r="C39" s="1">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="1">
-        <v>220</v>
-      </c>
-      <c r="C40" s="1">
-        <v>6</v>
-      </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="C41" s="1">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="1">
+        <v>310</v>
+      </c>
+      <c r="C42" s="1">
         <v>7</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4</v>
+      </c>
+      <c r="G42" s="1">
         <v>3</v>
       </c>
-      <c r="E41" s="1">
-        <v>2</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="1">
-        <v>200</v>
-      </c>
-      <c r="C42" s="1">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>4</v>
-      </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="1">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="C43" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
       </c>
       <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
         <v>2</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="C44" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -1919,16 +2207,22 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -1937,50 +2231,62 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>270</v>
+      </c>
+      <c r="C46" s="1">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1">
         <v>3</v>
       </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="1">
-        <v>150</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B47" s="1">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1997,22 +2303,28 @@
       <c r="H47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
@@ -2023,126 +2335,156 @@
       <c r="H48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="C49" s="1">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="1">
+        <v>210</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
         <v>3</v>
       </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="1">
+        <v>200</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="1">
-        <v>120</v>
-      </c>
-      <c r="C50" s="1">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="1">
-        <v>120</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1">
+        <v>200</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>3</v>
       </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="1">
-        <v>120</v>
-      </c>
-      <c r="C52" s="1">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>3</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B53" s="1">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="C53" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -2153,45 +2495,57 @@
       <c r="H53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1">
+        <v>180</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>6</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="1">
+      <c r="B55" s="1">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1">
         <v>4</v>
       </c>
-      <c r="D54" s="1">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>2</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="1">
-        <v>100</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
-      </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -2205,13 +2559,19 @@
       <c r="H55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B56" s="1">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
@@ -2220,53 +2580,65 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="1">
+        <v>160</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>3</v>
       </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="1">
-        <v>80</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B58" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -2275,30 +2647,36 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>
@@ -2309,146 +2687,182 @@
       <c r="H59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B60" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B61" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="1">
+        <v>120</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="1">
+        <v>120</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="1">
-        <v>60</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="1">
-        <v>50</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="1">
+        <v>100</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="1">
-        <v>50</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="B65" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -2465,25 +2879,31 @@
       <c r="H65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B66" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2491,166 +2911,208 @@
       <c r="H66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B67" s="1">
+        <v>80</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="1">
+        <v>70</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1">
+        <v>50</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>50</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="1">
         <v>40</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="1">
         <v>40</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="1">
-        <v>40</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="1">
-        <v>30</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>0</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B71" s="1">
-        <v>20</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="1">
-        <v>20</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="B73" s="1">
         <v>20</v>
@@ -2673,19 +3135,25 @@
       <c r="H73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -2699,19 +3167,25 @@
       <c r="H74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -2725,8 +3199,14 @@
       <c r="H75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -2751,8 +3231,14 @@
       <c r="H76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -2777,8 +3263,14 @@
       <c r="H77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>40</v>
       </c>
@@ -2803,8 +3295,14 @@
       <c r="H78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>51</v>
       </c>
@@ -2829,8 +3327,14 @@
       <c r="H79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>73</v>
       </c>
@@ -2855,8 +3359,14 @@
       <c r="H80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -2881,8 +3391,14 @@
       <c r="H81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>23</v>
       </c>
@@ -2907,8 +3423,14 @@
       <c r="H82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -2933,8 +3455,14 @@
       <c r="H83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3487,14 @@
       <c r="H84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>76</v>
       </c>
@@ -2985,8 +3519,14 @@
       <c r="H85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -3011,8 +3551,14 @@
       <c r="H86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>93</v>
       </c>
@@ -3037,8 +3583,14 @@
       <c r="H87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -3063,8 +3615,14 @@
       <c r="H88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>79</v>
       </c>
@@ -3089,8 +3647,14 @@
       <c r="H89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>80</v>
       </c>
@@ -3115,8 +3679,14 @@
       <c r="H90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
@@ -3141,8 +3711,14 @@
       <c r="H91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>24</v>
       </c>
@@ -3167,8 +3743,14 @@
       <c r="H92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -3193,8 +3775,14 @@
       <c r="H93" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -3219,8 +3807,14 @@
       <c r="H94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>14</v>
       </c>
@@ -3245,8 +3839,14 @@
       <c r="H95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>83</v>
       </c>
@@ -3271,8 +3871,14 @@
       <c r="H96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>59</v>
       </c>
@@ -3297,8 +3903,14 @@
       <c r="H97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>77</v>
       </c>
@@ -3323,8 +3935,14 @@
       <c r="H98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>62</v>
       </c>
@@ -3349,8 +3967,14 @@
       <c r="H99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>106</v>
       </c>
@@ -3375,8 +3999,14 @@
       <c r="H100" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1">
         <v>0</v>
@@ -3399,8 +4029,14 @@
       <c r="H101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1">
         <v>0</v>
@@ -3425,14 +4061,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H102">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J102">
     <sortCondition descending="1" ref="B2:B102"/>
   </sortState>
-  <conditionalFormatting sqref="B2:H101">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B2:J101">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C09ED-31EE-45C5-B021-BCFBDE6556FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA2233-28A1-4C76-B0D4-D2E612DB684D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -412,27 +412,7 @@
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -763,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDABA927-A938-4F24-8053-A4194B1C04A2}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,10 +823,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="1">
-        <v>6110</v>
+        <v>6450</v>
       </c>
       <c r="C2" s="1">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -864,21 +844,21 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>4450</v>
+        <v>5200</v>
       </c>
       <c r="C3" s="1">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -887,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -907,10 +887,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>3580</v>
+        <v>4600</v>
       </c>
       <c r="C4" s="1">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -919,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>
@@ -928,21 +908,21 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>3340</v>
+        <v>4450</v>
       </c>
       <c r="C5" s="1">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -951,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -971,10 +951,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>2950</v>
+        <v>4150</v>
       </c>
       <c r="C6" s="1">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -983,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1035,10 +1015,10 @@
         <v>58</v>
       </c>
       <c r="B8" s="1">
-        <v>2250</v>
+        <v>2330</v>
       </c>
       <c r="C8" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1047,7 +1027,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
@@ -1064,13 +1044,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1">
-        <v>1680</v>
+        <v>1750</v>
       </c>
       <c r="C9" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1079,30 +1059,30 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
-        <v>1380</v>
+        <v>1680</v>
       </c>
       <c r="C10" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1111,16 +1091,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1128,34 +1108,34 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
-        <v>1340</v>
+        <v>1590</v>
       </c>
       <c r="C11" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1163,19 +1143,19 @@
         <v>31</v>
       </c>
       <c r="B12" s="1">
-        <v>1300</v>
+        <v>1560</v>
       </c>
       <c r="C12" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1192,25 +1172,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>1230</v>
+        <v>1380</v>
       </c>
       <c r="C13" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1224,89 +1204,89 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1">
-        <v>1220</v>
+        <v>1280</v>
       </c>
       <c r="C14" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1">
-        <v>1170</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="1">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>1020</v>
+        <v>1170</v>
       </c>
       <c r="C16" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1320,31 +1300,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
-        <v>990</v>
+        <v>1170</v>
       </c>
       <c r="C17" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1352,31 +1332,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>970</v>
+        <v>1160</v>
       </c>
       <c r="C18" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1">
         <v>17</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1384,22 +1364,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1">
-        <v>850</v>
+        <v>990</v>
       </c>
       <c r="C19" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1416,54 +1396,54 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1">
-        <v>830</v>
+        <v>970</v>
       </c>
       <c r="C20" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="C21" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1472,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1483,16 +1463,16 @@
         <v>94</v>
       </c>
       <c r="B22" s="1">
-        <v>760</v>
+        <v>940</v>
       </c>
       <c r="C22" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1">
         <v>14</v>
@@ -1515,10 +1495,10 @@
         <v>35</v>
       </c>
       <c r="B23" s="1">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="C23" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1527,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1">
         <v>4</v>
@@ -1544,63 +1524,63 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
-        <v>700</v>
+        <v>920</v>
       </c>
       <c r="C24" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>6</v>
       </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
-        <v>660</v>
+        <v>830</v>
       </c>
       <c r="C25" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1608,31 +1588,31 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1">
-        <v>560</v>
+        <v>710</v>
       </c>
       <c r="C26" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1640,10 +1620,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="C27" s="1">
         <v>16</v>
@@ -1652,13 +1632,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1672,25 +1652,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1">
-        <v>540</v>
+        <v>690</v>
       </c>
       <c r="C28" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1704,25 +1684,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1">
-        <v>480</v>
+        <v>670</v>
       </c>
       <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
         <v>13</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="1">
-        <v>8</v>
-      </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -1739,10 +1719,10 @@
         <v>104</v>
       </c>
       <c r="B30" s="1">
-        <v>440</v>
+        <v>590</v>
       </c>
       <c r="C30" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1754,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -1768,22 +1748,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="C31" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1792,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1800,25 +1780,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>430</v>
+        <v>540</v>
       </c>
       <c r="C32" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1832,22 +1812,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="C33" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1856,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1864,54 +1844,54 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C34" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>2</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
       <c r="J34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="C35" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E35" s="1">
         <v>7</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1920,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1928,31 +1908,31 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="C36" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1960,51 +1940,51 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="C37" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="C38" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2024,31 +2004,31 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="C39" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2056,13 +2036,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C40" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -2071,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2088,19 +2068,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C41" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2112,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2120,31 +2100,31 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" s="1">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C42" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2152,42 +2132,42 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="C43" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>4</v>
       </c>
-      <c r="E43" s="1">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B44" s="1">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C44" s="1">
         <v>7</v>
@@ -2199,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -2216,31 +2196,31 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C45" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1">
         <v>2</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2248,22 +2228,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C46" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2272,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2280,58 +2260,58 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C47" s="1">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>5</v>
       </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>2</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B48" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C48" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
         <v>2</v>
       </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
@@ -2339,27 +2319,27 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C49" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2368,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2376,31 +2356,31 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C50" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2408,22 +2388,22 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C51" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2432,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2440,7 +2420,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1">
         <v>200</v>
@@ -2452,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2467,56 +2447,56 @@
         <v>3</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C53" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>3</v>
       </c>
-      <c r="E53" s="1">
-        <v>3</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C54" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -2528,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2536,22 +2516,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B55" s="1">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C55" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2560,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2568,13 +2548,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B56" s="1">
         <v>160</v>
       </c>
       <c r="C56" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -2583,30 +2563,30 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B57" s="1">
         <v>160</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -2615,19 +2595,19 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2952,10 +2932,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
@@ -2964,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2984,25 +2964,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B69" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -3016,7 +2996,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1">
         <v>50</v>
@@ -3034,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -3043,15 +3023,15 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -3063,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -3075,12 +3055,12 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B72" s="1">
         <v>40</v>
@@ -3112,22 +3092,22 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B73" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -3144,19 +3124,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -3176,7 +3156,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B75" s="1">
         <v>20</v>
@@ -3208,16 +3188,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B76" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -3240,16 +3220,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -3272,7 +3252,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -3304,7 +3284,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -3336,7 +3316,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -3368,7 +3348,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -3400,7 +3380,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -3432,7 +3412,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -3464,7 +3444,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -3496,7 +3476,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -3528,7 +3508,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -3560,7 +3540,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -3592,7 +3572,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -3624,7 +3604,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -3656,7 +3636,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -3688,7 +3668,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -3720,7 +3700,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -3752,7 +3732,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -3784,7 +3764,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -3816,7 +3796,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -3848,7 +3828,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -3880,7 +3860,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -3912,7 +3892,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -3944,7 +3924,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -4059,16 +4039,70 @@
       <c r="H102" s="1">
         <v>0</v>
       </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J102">
-    <sortCondition descending="1" ref="B2:B102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J108">
+    <sortCondition descending="1" ref="B2:B108"/>
   </sortState>
   <conditionalFormatting sqref="B2:J101">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA2233-28A1-4C76-B0D4-D2E612DB684D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FADED12-8CBE-4E36-929F-440544756B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
+    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
   <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,10 +823,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="1">
-        <v>6450</v>
+        <v>7340</v>
       </c>
       <c r="C2" s="1">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -844,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J2">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -855,10 +855,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>5200</v>
+        <v>6580</v>
       </c>
       <c r="C3" s="1">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -887,51 +887,51 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>4600</v>
+        <v>5470</v>
       </c>
       <c r="C4" s="1">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>4450</v>
+        <v>4830</v>
       </c>
       <c r="C5" s="1">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -943,27 +943,27 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
-        <v>4150</v>
+        <v>4450</v>
       </c>
       <c r="C6" s="1">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="1">
-        <v>2670</v>
+        <v>3570</v>
       </c>
       <c r="C7" s="1">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="1">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>58</v>
       </c>
       <c r="B8" s="1">
-        <v>2330</v>
+        <v>2370</v>
       </c>
       <c r="C8" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
@@ -1047,10 +1047,10 @@
         <v>61</v>
       </c>
       <c r="B9" s="1">
-        <v>1750</v>
+        <v>2050</v>
       </c>
       <c r="C9" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1062,45 +1062,45 @@
         <v>8</v>
       </c>
       <c r="G9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9">
         <v>12</v>
-      </c>
-      <c r="J9">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1">
-        <v>1680</v>
+        <v>1830</v>
       </c>
       <c r="C10" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1108,22 +1108,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1">
-        <v>1590</v>
+        <v>1790</v>
       </c>
       <c r="C11" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1140,22 +1140,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
-        <v>1560</v>
+        <v>1750</v>
       </c>
       <c r="C12" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
-        <v>1380</v>
+        <v>1680</v>
       </c>
       <c r="C13" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1204,25 +1204,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>1280</v>
+        <v>1380</v>
       </c>
       <c r="C14" s="1">
         <v>33</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1236,57 +1236,57 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>1220</v>
+        <v>1350</v>
       </c>
       <c r="C15" s="1">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
-        <v>1170</v>
+        <v>1280</v>
       </c>
       <c r="C16" s="1">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1300,57 +1300,57 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1">
-        <v>1170</v>
+        <v>1220</v>
       </c>
       <c r="C17" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1">
-        <v>1160</v>
+        <v>1220</v>
       </c>
       <c r="C18" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1364,22 +1364,22 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>990</v>
+        <v>1200</v>
       </c>
       <c r="C19" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1396,22 +1396,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1">
-        <v>970</v>
+        <v>1120</v>
       </c>
       <c r="C20" s="1">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1428,31 +1428,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1">
-        <v>960</v>
+        <v>1100</v>
       </c>
       <c r="C21" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1460,31 +1460,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1">
-        <v>940</v>
+        <v>990</v>
       </c>
       <c r="C22" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1492,31 +1492,31 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="C23" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1524,22 +1524,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1">
-        <v>920</v>
+        <v>970</v>
       </c>
       <c r="C24" s="1">
         <v>24</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1551,36 +1551,36 @@
         <v>6</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
-        <v>830</v>
+        <v>920</v>
       </c>
       <c r="C25" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1588,57 +1588,57 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1">
-        <v>710</v>
+        <v>870</v>
       </c>
       <c r="C26" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="C27" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1652,25 +1652,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="C28" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1687,16 +1687,16 @@
         <v>56</v>
       </c>
       <c r="B29" s="1">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="C29" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1">
         <v>8</v>
       </c>
       <c r="E29" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
@@ -1812,51 +1812,51 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="C33" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>8</v>
       </c>
-      <c r="F33" s="1">
-        <v>4</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="C34" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1876,54 +1876,54 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1">
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="C35" s="1">
         <v>13</v>
       </c>
       <c r="D35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>7</v>
       </c>
-      <c r="F35" s="1">
-        <v>2</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="C36" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1940,54 +1940,54 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="C37" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="C38" s="1">
         <v>15</v>
       </c>
       <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
         <v>8</v>
       </c>
-      <c r="E38" s="1">
-        <v>7</v>
-      </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2004,31 +2004,31 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="C39" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2036,95 +2036,95 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="C40" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G40" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="C41" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B42" s="1">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="C42" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -2147,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2164,31 +2164,31 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B44" s="1">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="C44" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2196,25 +2196,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="C45" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -2228,22 +2228,22 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="C46" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C47" s="1">
         <v>7</v>
@@ -2275,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2292,25 +2292,25 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="B48" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C48" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -2319,18 +2319,18 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C49" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2356,19 +2356,19 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="C50" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2388,25 +2388,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B51" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C51" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -2415,18 +2415,18 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C52" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2452,19 +2452,19 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C53" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -2476,30 +2476,30 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C54" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E54" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2516,22 +2516,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2548,13 +2548,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B56" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2580,45 +2580,45 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C57" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B58" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -2627,16 +2627,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2644,57 +2644,57 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
         <v>2</v>
       </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B61" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C61" s="1">
         <v>3</v>
@@ -2723,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2740,22 +2740,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B62" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C62" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2772,25 +2772,25 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B63" s="1">
         <v>120</v>
       </c>
       <c r="C63" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -2804,22 +2804,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B64" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
       </c>
       <c r="D64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2836,25 +2836,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B65" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -2863,27 +2863,27 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C66" s="1">
         <v>3</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2900,10 +2900,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
@@ -2915,39 +2915,39 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C68" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B69" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2996,13 +2996,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C70" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -3011,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -3028,13 +3028,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B71" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -3055,24 +3055,24 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B72" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -3107,10 +3107,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -3124,10 +3124,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B74" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -3151,21 +3151,21 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="B75" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3183,27 +3183,27 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
@@ -3220,22 +3220,22 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B77" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="1">
         <v>0</v>
@@ -3252,19 +3252,19 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -3284,19 +3284,19 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -3316,16 +3316,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3348,16 +3348,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B81" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FADED12-8CBE-4E36-929F-440544756B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7C879A-5B7F-44B3-868C-4A9B1493747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -348,13 +348,13 @@
     <t>Anaradar</t>
   </si>
   <si>
-    <t>Durdan Poison</t>
-  </si>
-  <si>
     <t>Level 20 Cursed Citadel</t>
   </si>
   <si>
     <t>Level 25 Cursed Citadel</t>
+  </si>
+  <si>
+    <t>Bathris II</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,21 +812,21 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
         <v>107</v>
-      </c>
-      <c r="J1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>7340</v>
+        <v>7520</v>
       </c>
       <c r="C2" s="1">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -835,30 +835,30 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>6580</v>
+        <v>7340</v>
       </c>
       <c r="C3" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -887,10 +887,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>5470</v>
+        <v>5620</v>
       </c>
       <c r="C4" s="1">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>42</v>
       </c>
       <c r="J4">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -919,19 +919,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>4830</v>
+        <v>5010</v>
       </c>
       <c r="C5" s="1">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
-        <v>4450</v>
+        <v>4680</v>
       </c>
       <c r="C6" s="1">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -975,18 +975,18 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>3570</v>
+        <v>4450</v>
       </c>
       <c r="C7" s="1">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1007,132 +1007,132 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1">
-        <v>2370</v>
+        <v>2440</v>
       </c>
       <c r="C8" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1">
-        <v>2050</v>
+        <v>2410</v>
       </c>
       <c r="C9" s="1">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2370</v>
+      </c>
+      <c r="C10" s="1">
         <v>65</v>
       </c>
-      <c r="B10" s="1">
-        <v>1830</v>
-      </c>
-      <c r="C10" s="1">
-        <v>47</v>
-      </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
-        <v>1790</v>
+        <v>2000</v>
       </c>
       <c r="C11" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1143,10 +1143,10 @@
         <v>39</v>
       </c>
       <c r="B12" s="1">
-        <v>1750</v>
+        <v>1990</v>
       </c>
       <c r="C12" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1">
         <v>9</v>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>1680</v>
+        <v>1940</v>
       </c>
       <c r="C13" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1204,31 +1204,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>1380</v>
+        <v>1880</v>
       </c>
       <c r="C14" s="1">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1236,25 +1236,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1">
-        <v>1350</v>
+        <v>1870</v>
       </c>
       <c r="C15" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1268,31 +1268,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>1280</v>
+        <v>1690</v>
       </c>
       <c r="C16" s="1">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1300,22 +1300,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
-        <v>1220</v>
+        <v>1680</v>
       </c>
       <c r="C17" s="1">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
         <v>18</v>
@@ -1324,39 +1324,39 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>1220</v>
+        <v>1470</v>
       </c>
       <c r="C18" s="1">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1364,25 +1364,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>1200</v>
+        <v>1370</v>
       </c>
       <c r="C19" s="1">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1396,22 +1396,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1">
-        <v>1120</v>
+        <v>1290</v>
       </c>
       <c r="C20" s="1">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1428,34 +1428,34 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1">
-        <v>1100</v>
+        <v>1220</v>
       </c>
       <c r="C21" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1463,16 +1463,16 @@
         <v>86</v>
       </c>
       <c r="B22" s="1">
-        <v>990</v>
+        <v>1020</v>
       </c>
       <c r="C22" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1">
         <v>2</v>
@@ -1652,25 +1652,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="C28" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1684,22 +1684,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="C29" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1708,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1">
-        <v>590</v>
+        <v>700</v>
       </c>
       <c r="C30" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -1748,22 +1748,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="C31" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="C32" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
         <v>11</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1812,22 +1812,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="C33" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1836,30 +1836,30 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="C34" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="C35" s="1">
         <v>13</v>
@@ -1888,42 +1888,42 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="C36" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1932,24 +1932,24 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="C37" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1">
         <v>8</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1972,54 +1972,54 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="C38" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
         <v>4</v>
       </c>
-      <c r="E38" s="1">
-        <v>8</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
         <v>2</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="C39" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2036,22 +2036,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="C40" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="C41" s="1">
         <v>9</v>
@@ -2080,51 +2080,51 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>9</v>
       </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>7</v>
-      </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2132,25 +2132,25 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="C43" s="1">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
         <v>7</v>
       </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
       <c r="G43" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -2159,24 +2159,24 @@
         <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C44" s="1">
         <v>12</v>
       </c>
       <c r="D44" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2196,19 +2196,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C45" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2228,31 +2228,31 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B46" s="1">
         <v>330</v>
       </c>
       <c r="C46" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2260,31 +2260,31 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C47" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2292,31 +2292,31 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C48" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -2339,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2388,13 +2388,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C51" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G51" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -2415,27 +2415,27 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B52" s="1">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C52" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C53" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2484,22 +2484,22 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C54" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2516,13 +2516,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B55" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C55" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -2575,27 +2575,27 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C57" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2612,22 +2612,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2644,54 +2644,54 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B59" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>3</v>
       </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B61" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C61" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -2723,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2740,22 +2740,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B62" s="1">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C62" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F62" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2772,31 +2772,31 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B63" s="1">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1">
         <v>4</v>
       </c>
       <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
         <v>2</v>
       </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
       <c r="G63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="B64" s="1">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -2819,45 +2819,45 @@
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B65" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2868,19 +2868,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C66" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
         <v>2</v>
@@ -2900,19 +2900,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="B67" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C67" s="1">
+        <v>4</v>
+      </c>
+      <c r="D67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -2927,15 +2927,15 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B68" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C68" s="1">
         <v>3</v>
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
         <v>3</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B69" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2996,13 +2996,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B70" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -3028,16 +3028,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B71" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
@@ -3072,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
@@ -3087,30 +3087,30 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B73" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -3124,13 +3124,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B74" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -3148,21 +3148,21 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B75" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -3183,24 +3183,24 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B76" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C76" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B78" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -3279,15 +3279,15 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B79" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -3311,24 +3311,24 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7C879A-5B7F-44B3-868C-4A9B1493747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA80E02-A073-4B51-9D09-82F3D0653229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
+    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
   <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,10 +823,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>7520</v>
+        <v>8060</v>
       </c>
       <c r="C2" s="1">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>5620</v>
+        <v>7240</v>
       </c>
       <c r="C4" s="1">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J4">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -919,19 +919,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>5010</v>
+        <v>5670</v>
       </c>
       <c r="C5" s="1">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1012,60 +1012,60 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>2440</v>
+        <v>3770</v>
       </c>
       <c r="C8" s="1">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="G8" s="1">
-        <v>9</v>
-      </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>2410</v>
+        <v>3600</v>
       </c>
       <c r="C9" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1076,45 +1076,45 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
-        <v>2370</v>
+        <v>3280</v>
       </c>
       <c r="C10" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1">
-        <v>2000</v>
+        <v>2990</v>
       </c>
       <c r="C11" s="1">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1123,48 +1123,48 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1">
-        <v>1990</v>
+        <v>2770</v>
       </c>
       <c r="C12" s="1">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>1940</v>
+        <v>2440</v>
       </c>
       <c r="C13" s="1">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1204,22 +1204,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1">
-        <v>1880</v>
+        <v>2410</v>
       </c>
       <c r="C14" s="1">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1236,63 +1236,63 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1">
-        <v>1870</v>
+        <v>2370</v>
       </c>
       <c r="C15" s="1">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
-        <v>1690</v>
+        <v>2230</v>
       </c>
       <c r="C16" s="1">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
-        <v>1680</v>
+        <v>2220</v>
       </c>
       <c r="C17" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1315,39 +1315,39 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
-        <v>1470</v>
+        <v>2190</v>
       </c>
       <c r="C18" s="1">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1364,31 +1364,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>1370</v>
+        <v>2020</v>
       </c>
       <c r="C19" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1396,22 +1396,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>1290</v>
+        <v>1690</v>
       </c>
       <c r="C20" s="1">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1431,13 +1431,13 @@
         <v>74</v>
       </c>
       <c r="B21" s="1">
-        <v>1220</v>
+        <v>1510</v>
       </c>
       <c r="C21" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -1455,27 +1455,27 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>1020</v>
+        <v>1470</v>
       </c>
       <c r="C22" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1492,25 +1492,25 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
-        <v>990</v>
+        <v>1400</v>
       </c>
       <c r="C23" s="1">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F23" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1524,19 +1524,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1">
-        <v>970</v>
+        <v>1290</v>
       </c>
       <c r="C24" s="1">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1">
         <v>17</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1556,121 +1556,121 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="C25" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1">
-        <v>840</v>
+        <v>970</v>
       </c>
       <c r="C27" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
-        <v>750</v>
+        <v>970</v>
       </c>
       <c r="C28" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1684,121 +1684,121 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="C29" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
-        <v>700</v>
+        <v>880</v>
       </c>
       <c r="C30" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
-        <v>700</v>
+        <v>870</v>
       </c>
       <c r="C31" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1">
-        <v>590</v>
+        <v>840</v>
       </c>
       <c r="C32" s="1">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
         <v>12</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1812,31 +1812,31 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>590</v>
+        <v>840</v>
       </c>
       <c r="C33" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1844,22 +1844,22 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1">
-        <v>560</v>
+        <v>830</v>
       </c>
       <c r="C34" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1876,31 +1876,31 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1">
-        <v>540</v>
+        <v>830</v>
       </c>
       <c r="C35" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1908,22 +1908,22 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1">
-        <v>530</v>
+        <v>780</v>
       </c>
       <c r="C36" s="1">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1932,30 +1932,30 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1">
-        <v>520</v>
+        <v>770</v>
       </c>
       <c r="C37" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1964,71 +1964,71 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1">
-        <v>500</v>
+        <v>740</v>
       </c>
       <c r="C38" s="1">
+        <v>28</v>
+      </c>
+      <c r="D38" s="1">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1">
         <v>12</v>
       </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
       <c r="F38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="C39" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2036,31 +2036,31 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1">
-        <v>440</v>
+        <v>690</v>
       </c>
       <c r="C40" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2068,89 +2068,89 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1">
-        <v>440</v>
+        <v>610</v>
       </c>
       <c r="C41" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="C42" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1">
-        <v>370</v>
+        <v>590</v>
       </c>
       <c r="C43" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -2164,22 +2164,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B44" s="1">
-        <v>360</v>
+        <v>570</v>
       </c>
       <c r="C44" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2188,30 +2188,30 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="C45" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2228,25 +2228,25 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1">
-        <v>330</v>
+        <v>520</v>
       </c>
       <c r="C46" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2260,95 +2260,95 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="C47" s="1">
         <v>12</v>
       </c>
       <c r="D47" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
         <v>2</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="C48" s="1">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
         <v>8</v>
       </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="C49" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2356,13 +2356,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1">
-        <v>280</v>
+        <v>440</v>
       </c>
       <c r="C50" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2388,22 +2388,22 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="C51" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2420,25 +2420,25 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B52" s="1">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="C52" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -2452,31 +2452,31 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B53" s="1">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="C53" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2484,22 +2484,22 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="C54" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2516,22 +2516,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="C55" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2548,13 +2548,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="B56" s="1">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="C56" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -2566,39 +2566,39 @@
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B57" s="1">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="C57" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -2612,22 +2612,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B58" s="1">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="C58" s="1">
         <v>10</v>
       </c>
       <c r="D58" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2644,22 +2644,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="C59" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2676,22 +2676,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B60" s="1">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="C60" s="1">
         <v>7</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C61" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B62" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C62" s="1">
         <v>6</v>
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
         <v>6</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="C63" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -2787,77 +2787,77 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
         <v>2</v>
       </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
       <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
         <v>2</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="C64" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B65" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="C65" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
       </c>
       <c r="G65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2868,22 +2868,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B66" s="1">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="C66" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2900,31 +2900,31 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C67" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
         <v>2</v>
       </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
       <c r="G67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2932,22 +2932,22 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C68" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F68" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B69" s="1">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="B70" s="1">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
@@ -3011,40 +3011,40 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C71" s="1">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
         <v>3</v>
       </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1">
-        <v>2</v>
-      </c>
       <c r="G71" s="1">
         <v>0</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B72" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -3075,27 +3075,27 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
       </c>
       <c r="H72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C73" s="1">
         <v>3</v>
@@ -3104,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
         <v>3</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -3124,22 +3124,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C74" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3156,19 +3156,19 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1">
         <v>2</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C76" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
@@ -3220,25 +3220,25 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
@@ -3252,22 +3252,22 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B78" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78" s="1">
         <v>0</v>
@@ -3279,18 +3279,18 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B79" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="1">
         <v>0</v>
@@ -3316,22 +3316,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B80" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -3348,22 +3348,22 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B81" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
@@ -3380,13 +3380,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -3407,24 +3407,24 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B83" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -3444,16 +3444,16 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B84" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -3476,16 +3476,16 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -4095,8 +4095,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J108">
-    <sortCondition descending="1" ref="B2:B108"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J100">
+    <sortCondition descending="1" ref="B2:B100"/>
   </sortState>
   <conditionalFormatting sqref="B2:J101">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA80E02-A073-4B51-9D09-82F3D0653229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2664A44-592A-45C8-AFCC-BB889095DAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
@@ -318,9 +318,6 @@
     <t>Oll</t>
   </si>
   <si>
-    <t>THE BLACK POPE VII</t>
-  </si>
-  <si>
     <t>Elanil</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>Bathris II</t>
+  </si>
+  <si>
+    <t>Praying Mantis</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -401,13 +401,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -745,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDABA927-A938-4F24-8053-A4194B1C04A2}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +771,8 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -811,11 +826,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="J1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -823,10 +838,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>8060</v>
+        <v>9720</v>
       </c>
       <c r="C2" s="1">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -835,83 +850,83 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="G2" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>7340</v>
+        <v>7600</v>
       </c>
       <c r="C3" s="1">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>46</v>
-      </c>
-      <c r="J3">
-        <v>110</v>
+      <c r="I3" s="1">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
-        <v>7240</v>
+        <v>7340</v>
       </c>
       <c r="C4" s="1">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>49</v>
-      </c>
-      <c r="J4">
-        <v>41</v>
+      <c r="I4" s="1">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -919,19 +934,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>5670</v>
+        <v>6680</v>
       </c>
       <c r="C5" s="1">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -939,11 +954,11 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -971,10 +986,10 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1003,86 +1018,86 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
-        <v>3770</v>
+        <v>3870</v>
       </c>
       <c r="C8" s="1">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="1">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>3600</v>
+        <v>3770</v>
       </c>
       <c r="C9" s="1">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1">
-        <v>60</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>3280</v>
+        <v>3600</v>
       </c>
       <c r="C10" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1091,30 +1106,30 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
-        <v>2990</v>
+        <v>3280</v>
       </c>
       <c r="C11" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1123,103 +1138,103 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>26</v>
-      </c>
-      <c r="J11">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1">
-        <v>2770</v>
+        <v>3120</v>
       </c>
       <c r="C12" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>26</v>
       </c>
-      <c r="F12" s="1">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>16</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+      <c r="J12" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1">
-        <v>2440</v>
+        <v>2840</v>
       </c>
       <c r="C13" s="1">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>58</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>46</v>
-      </c>
-      <c r="G13" s="1">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>2410</v>
+        <v>2770</v>
       </c>
       <c r="C14" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1227,86 +1242,86 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="1">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1">
-        <v>2370</v>
+        <v>2730</v>
       </c>
       <c r="C15" s="1">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>2230</v>
+        <v>2460</v>
       </c>
       <c r="C16" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
-        <v>2220</v>
+        <v>2440</v>
       </c>
       <c r="C17" s="1">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1315,231 +1330,231 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1">
-        <v>2190</v>
+        <v>2370</v>
       </c>
       <c r="C18" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
-        <v>2020</v>
+        <v>2230</v>
       </c>
       <c r="C19" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
-        <v>1690</v>
+        <v>2220</v>
       </c>
       <c r="C20" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>1510</v>
+        <v>1690</v>
       </c>
       <c r="C21" s="1">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1">
-        <v>1470</v>
+        <v>1580</v>
       </c>
       <c r="C22" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="C23" s="1">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1">
-        <v>1290</v>
+        <v>1530</v>
       </c>
       <c r="C24" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1547,95 +1562,95 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="I24" s="1">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
-        <v>1020</v>
+        <v>1480</v>
       </c>
       <c r="C25" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>6</v>
+      </c>
+      <c r="J25" s="1">
         <v>2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>970</v>
+        <v>1470</v>
       </c>
       <c r="C26" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1">
         <v>17</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>6</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1">
-        <v>970</v>
+        <v>1400</v>
       </c>
       <c r="C27" s="1">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E27" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F27" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1643,179 +1658,179 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>6</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1">
-        <v>970</v>
+        <v>1120</v>
       </c>
       <c r="C28" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F28" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="C29" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>12</v>
       </c>
       <c r="F29" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>970</v>
+      </c>
+      <c r="C30" s="1">
         <v>24</v>
       </c>
-      <c r="B30" s="1">
-        <v>880</v>
-      </c>
-      <c r="C30" s="1">
-        <v>18</v>
-      </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>6</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="C31" s="1">
         <v>24</v>
       </c>
       <c r="D31" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G31" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="C32" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
         <v>12</v>
       </c>
       <c r="F32" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="C33" s="1">
         <v>19</v>
@@ -1824,106 +1839,106 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="C34" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="C35" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>6</v>
-      </c>
-      <c r="J35">
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="C36" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1931,28 +1946,28 @@
       <c r="H36" s="1">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1">
-        <v>770</v>
+        <v>810</v>
       </c>
       <c r="C37" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1963,127 +1978,127 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>13</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="C38" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>12</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38">
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1">
-        <v>700</v>
+        <v>780</v>
       </c>
       <c r="C39" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="C40" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
         <v>13</v>
       </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
+      <c r="J40" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1">
-        <v>610</v>
+        <v>720</v>
       </c>
       <c r="C41" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D41" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2091,19 +2106,19 @@
       <c r="H41" s="1">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="J41">
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1">
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="C42" s="1">
         <v>14</v>
@@ -2115,39 +2130,39 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>8</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="C43" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2155,31 +2170,31 @@
       <c r="H43" s="1">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="C44" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2187,19 +2202,19 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>10</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
+      <c r="I44" s="1">
+        <v>4</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="C45" s="1">
         <v>14</v>
@@ -2211,39 +2226,39 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
+      <c r="I45" s="1">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="C46" s="1">
+        <v>18</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
         <v>13</v>
       </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
       <c r="F46" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2251,31 +2266,31 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="C47" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -2283,86 +2298,86 @@
       <c r="H47" s="1">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>4</v>
-      </c>
-      <c r="J47">
+      <c r="I47" s="1">
         <v>2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="C48" s="1">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
         <v>10</v>
       </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>8</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="C49" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
         <v>4</v>
       </c>
-      <c r="E49" s="1">
-        <v>8</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4</v>
+      </c>
+      <c r="J49" s="1">
         <v>2</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B50" s="1">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="C50" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -2371,39 +2386,39 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C51" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2411,106 +2426,106 @@
       <c r="H51" s="1">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B52" s="1">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C52" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="C53" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F53" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C54" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2519,16 +2534,16 @@
         <v>64</v>
       </c>
       <c r="B55" s="1">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="C55" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="1">
         <v>3</v>
       </c>
       <c r="E55" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2539,31 +2554,31 @@
       <c r="H55" s="1">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B56" s="1">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="C56" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2571,127 +2586,127 @@
       <c r="H56" s="1">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>7</v>
-      </c>
-      <c r="J56">
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B57" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C57" s="1">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
         <v>7</v>
       </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>4</v>
-      </c>
-      <c r="G57" s="1">
-        <v>3</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="J57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C58" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
         <v>3</v>
       </c>
-      <c r="E58" s="1">
-        <v>3</v>
-      </c>
-      <c r="F58" s="1">
-        <v>4</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
       <c r="H58" s="1">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B59" s="1">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C59" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
         <v>4</v>
       </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B60" s="1">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C60" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2699,63 +2714,63 @@
       <c r="H60" s="1">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B61" s="1">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C61" s="1">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
         <v>6</v>
       </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>2</v>
-      </c>
       <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>4</v>
-      </c>
-      <c r="J61">
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C62" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2763,22 +2778,22 @@
       <c r="H62" s="1">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="B63" s="1">
         <v>240</v>
       </c>
       <c r="C63" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -2787,71 +2802,71 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
+      <c r="I63" s="1">
+        <v>4</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B64" s="1">
         <v>240</v>
       </c>
       <c r="C64" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D64" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
         <v>2</v>
       </c>
-      <c r="F64" s="1">
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
         <v>2</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1">
         <v>240</v>
       </c>
       <c r="C65" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2859,28 +2874,28 @@
       <c r="H65" s="1">
         <v>0</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C66" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F66" s="1">
         <v>1</v>
@@ -2891,31 +2906,31 @@
       <c r="H66" s="1">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C67" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2923,31 +2938,31 @@
       <c r="H67" s="1">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67">
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B68" s="1">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="C68" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2955,31 +2970,31 @@
       <c r="H68" s="1">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B69" s="1">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C69" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2987,118 +3002,118 @@
       <c r="H69" s="1">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69">
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B70" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
         <v>3</v>
       </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1">
-        <v>0</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
+      <c r="J70" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B71" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
         <v>4</v>
       </c>
-      <c r="D71" s="1">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1">
-        <v>3</v>
-      </c>
       <c r="G71" s="1">
         <v>0</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="B72" s="1">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C72" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
       </c>
       <c r="G72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B73" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C73" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -3107,71 +3122,71 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
+      <c r="I73" s="1">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B74" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C74" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="1">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B75" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C75" s="1">
         <v>4</v>
       </c>
       <c r="D75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -3179,19 +3194,19 @@
       <c r="H75" s="1">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B76" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
@@ -3203,71 +3218,71 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="1">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C78" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F78" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G78" s="1">
         <v>0</v>
@@ -3275,63 +3290,63 @@
       <c r="H78" s="1">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C79" s="1">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1">
-        <v>0</v>
-      </c>
       <c r="G79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="1">
         <v>0</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C80" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
@@ -3339,54 +3354,54 @@
       <c r="H80" s="1">
         <v>0</v>
       </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B81" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="1">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1">
-        <v>1</v>
-      </c>
       <c r="G81" s="1">
         <v>0</v>
       </c>
       <c r="H81" s="1">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B82" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -3398,36 +3413,36 @@
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B83" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
@@ -3435,31 +3450,31 @@
       <c r="H83" s="1">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B84" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C84" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="1">
         <v>0</v>
@@ -3467,22 +3482,22 @@
       <c r="H84" s="1">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B85" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -3491,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1">
         <v>0</v>
@@ -3499,22 +3514,22 @@
       <c r="H85" s="1">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -3531,28 +3546,28 @@
       <c r="H86" s="1">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -3563,28 +3578,28 @@
       <c r="H87" s="1">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -3595,16 +3610,16 @@
       <c r="H88" s="1">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -3627,16 +3642,16 @@
       <c r="H89" s="1">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -3659,16 +3674,16 @@
       <c r="H90" s="1">
         <v>0</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -3691,16 +3706,16 @@
       <c r="H91" s="1">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -3723,16 +3738,16 @@
       <c r="H92" s="1">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -3755,16 +3770,16 @@
       <c r="H93" s="1">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -3787,16 +3802,16 @@
       <c r="H94" s="1">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -3819,16 +3834,16 @@
       <c r="H95" s="1">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -3851,16 +3866,16 @@
       <c r="H96" s="1">
         <v>0</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -3883,10 +3898,10 @@
       <c r="H97" s="1">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3915,10 +3930,10 @@
       <c r="H98" s="1">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3947,10 +3962,10 @@
       <c r="H99" s="1">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3979,10 +3994,10 @@
       <c r="H100" s="1">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4009,34 +4024,34 @@
       <c r="H101" s="1">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1">
-        <v>0</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0</v>
-      </c>
-      <c r="H102" s="1">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
         <v>0</v>
       </c>
       <c r="I102">
@@ -4095,8 +4110,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J100">
-    <sortCondition descending="1" ref="B2:B100"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J101">
+    <sortCondition descending="1" ref="B2:B101"/>
   </sortState>
   <conditionalFormatting sqref="B2:J101">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2664A44-592A-45C8-AFCC-BB889095DAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B9DA6-55B3-42F3-A0A8-EF6C0B121A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
@@ -757,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDABA927-A938-4F24-8053-A4194B1C04A2}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,10 +838,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>9720</v>
+        <v>11180</v>
       </c>
       <c r="C2" s="1">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="G2" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>7600</v>
+        <v>8510</v>
       </c>
       <c r="C3" s="1">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -882,16 +882,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1">
         <v>45</v>
@@ -902,10 +902,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="1">
-        <v>7340</v>
+        <v>7780</v>
       </c>
       <c r="C4" s="1">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -934,10 +934,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>6680</v>
+        <v>7480</v>
       </c>
       <c r="C5" s="1">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1030,10 +1030,10 @@
         <v>65</v>
       </c>
       <c r="B8" s="1">
-        <v>3870</v>
+        <v>3910</v>
       </c>
       <c r="C8" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -1042,7 +1042,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1059,60 +1059,60 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1">
-        <v>3770</v>
+        <v>3780</v>
       </c>
       <c r="C9" s="1">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
-        <v>3600</v>
+        <v>3770</v>
       </c>
       <c r="C10" s="1">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>3280</v>
+        <v>3600</v>
       </c>
       <c r="C11" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>3120</v>
+        <v>3280</v>
       </c>
       <c r="C12" s="1">
         <v>70</v>
@@ -1170,48 +1170,48 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
-        <v>2840</v>
+        <v>3200</v>
       </c>
       <c r="C13" s="1">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1219,31 +1219,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1">
-        <v>2770</v>
+        <v>3160</v>
       </c>
       <c r="C14" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1283,22 +1283,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2620</v>
+      </c>
+      <c r="C16" s="1">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>29</v>
       </c>
-      <c r="B16" s="1">
-        <v>2460</v>
-      </c>
-      <c r="C16" s="1">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
       <c r="F16" s="1">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G16" s="1">
         <v>6</v>
@@ -1307,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
-        <v>2440</v>
+        <v>2470</v>
       </c>
       <c r="C17" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1342,68 +1342,68 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
-        <v>2370</v>
+        <v>2460</v>
       </c>
       <c r="C18" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
-        <v>2230</v>
+        <v>2440</v>
       </c>
       <c r="C19" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -1411,54 +1411,54 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
-        <v>2220</v>
+        <v>2230</v>
       </c>
       <c r="C20" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1">
-        <v>1690</v>
+        <v>1920</v>
       </c>
       <c r="C21" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1478,19 +1478,19 @@
         <v>94</v>
       </c>
       <c r="B22" s="1">
-        <v>1580</v>
+        <v>1760</v>
       </c>
       <c r="C22" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -1507,54 +1507,54 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1560</v>
+        <v>1690</v>
       </c>
       <c r="C23" s="1">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
-        <v>1530</v>
+        <v>1610</v>
       </c>
       <c r="C24" s="1">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -1571,54 +1571,54 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="C25" s="1">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
         <v>4</v>
       </c>
-      <c r="E25" s="1">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1">
-        <v>17</v>
-      </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1">
-        <v>1470</v>
+        <v>1510</v>
       </c>
       <c r="C26" s="1">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1635,22 +1635,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="C27" s="1">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1659,30 +1659,30 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1">
-        <v>1120</v>
+        <v>1470</v>
       </c>
       <c r="C28" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="C29" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1731,31 +1731,31 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="C30" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
         <v>970</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -1795,25 +1795,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="C32" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1859,63 +1859,63 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
-        <v>870</v>
+        <v>920</v>
       </c>
       <c r="C34" s="1">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1">
-        <v>840</v>
+        <v>900</v>
       </c>
       <c r="C35" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F35" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G35" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -1923,51 +1923,51 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="C36" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1">
-        <v>810</v>
+        <v>870</v>
       </c>
       <c r="C37" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D37" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1987,25 +1987,25 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="C38" s="1">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1">
         <v>18</v>
       </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
       <c r="F38" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2019,31 +2019,31 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="C39" s="1">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -2051,22 +2051,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="C40" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2075,18 +2075,18 @@
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="C41" s="1">
         <v>18</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2115,45 +2115,45 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="C42" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
         <v>13</v>
       </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="C43" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2179,31 +2179,31 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1">
-        <v>610</v>
+        <v>690</v>
       </c>
       <c r="C44" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
@@ -2211,13 +2211,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="C45" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -2226,80 +2226,80 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B46" s="1">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="C46" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F46" s="1">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
         <v>4</v>
       </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1</v>
-      </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="C47" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="C48" s="1">
         <v>14</v>
@@ -2322,39 +2322,39 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>8</v>
+      </c>
+      <c r="J48" s="1">
         <v>3</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>10</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="C49" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -2363,39 +2363,39 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B50" s="1">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="C50" s="1">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
         <v>10</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>8</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>1</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -2403,26 +2403,26 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B51" s="1">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="C51" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
         <v>8</v>
       </c>
-      <c r="F51" s="1">
-        <v>2</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
       <c r="H51" s="1">
         <v>0</v>
       </c>
@@ -2430,27 +2430,27 @@
         <v>1</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="C52" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2467,22 +2467,22 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C53" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>26</v>
       </c>
       <c r="B54" s="1">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="C54" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
@@ -2531,22 +2531,22 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B55" s="1">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="C55" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -2563,22 +2563,22 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B56" s="1">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C56" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D56" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -2595,22 +2595,22 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B57" s="1">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C57" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1">
         <v>0</v>
@@ -2627,31 +2627,31 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="B58" s="1">
         <v>320</v>
       </c>
       <c r="C58" s="1">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
         <v>7</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1">
-        <v>2</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B59" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C59" s="1">
         <v>7</v>
@@ -2671,16 +2671,16 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59" s="1">
         <v>3</v>
       </c>
       <c r="H59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -2691,25 +2691,25 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B60" s="1">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C60" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D60" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>4</v>
       </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -2723,22 +2723,22 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C61" s="1">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
         <v>7</v>
       </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
       <c r="F61" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -2755,22 +2755,22 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C62" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2787,23 +2787,23 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B63" s="1">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C63" s="1">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
         <v>6</v>
       </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>2</v>
-      </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -2819,25 +2819,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C64" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -2846,27 +2846,27 @@
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C65" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
       </c>
       <c r="F65" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2883,22 +2883,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="B66" s="1">
         <v>240</v>
       </c>
       <c r="C66" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -2915,25 +2915,25 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B67" s="1">
         <v>240</v>
       </c>
       <c r="C67" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -2942,24 +2942,24 @@
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B68" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C68" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F68" s="1">
         <v>1</v>
@@ -2979,22 +2979,22 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B69" s="1">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C69" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -3011,22 +3011,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C70" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -3043,13 +3043,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C71" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -3058,16 +3058,16 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -3075,22 +3075,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C72" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
@@ -3107,23 +3107,23 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C73" s="1">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
         <v>4</v>
       </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1">
-        <v>2</v>
-      </c>
       <c r="G73" s="1">
         <v>0</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -3139,39 +3139,39 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C74" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="1">
         <v>160</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="B76" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -3230,36 +3230,36 @@
         <v>0</v>
       </c>
       <c r="J76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B77" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C77" s="1">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
         <v>3</v>
       </c>
-      <c r="D77" s="1">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1">
-        <v>0</v>
-      </c>
       <c r="G77" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -3267,28 +3267,28 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B78" s="1">
         <v>150</v>
       </c>
       <c r="C78" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
@@ -3299,22 +3299,22 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C79" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F79" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>
@@ -3331,22 +3331,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B80" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C80" s="1">
         <v>4</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G80" s="1">
         <v>0</v>
@@ -3363,22 +3363,22 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B81" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C81" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
@@ -3395,25 +3395,25 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1">
         <v>100</v>
       </c>
       <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
         <v>2</v>
       </c>
-      <c r="D82" s="1">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
       <c r="G82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
@@ -3422,15 +3422,15 @@
         <v>0</v>
       </c>
       <c r="J82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B83" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
@@ -3442,27 +3442,27 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
       </c>
       <c r="I83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B84" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="1">
         <v>0</v>
@@ -4033,81 +4033,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="2">
-        <v>0</v>
-      </c>
-      <c r="C102" s="2">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
-        <v>0</v>
-      </c>
-      <c r="F102" s="2">
-        <v>0</v>
-      </c>
-      <c r="G102" s="2">
-        <v>0</v>
-      </c>
-      <c r="H102" s="2">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J101">

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B9DA6-55B3-42F3-A0A8-EF6C0B121A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B27C70-B9E0-4D4A-9570-CFA0CA5D1F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Praying Mantis</t>
+  </si>
+  <si>
+    <t>Purple Stiletto</t>
   </si>
 </sst>
 </file>
@@ -760,7 +763,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,10 +841,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>11180</v>
+        <v>12740</v>
       </c>
       <c r="C2" s="1">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -850,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G2" s="1">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -867,66 +870,66 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>8510</v>
+        <v>10100</v>
       </c>
       <c r="C3" s="1">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1">
-        <v>45</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>7780</v>
+        <v>8840</v>
       </c>
       <c r="C4" s="1">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1">
-        <v>118</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -966,10 +969,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="1">
-        <v>4680</v>
+        <v>4840</v>
       </c>
       <c r="C6" s="1">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1">
         <v>60</v>
@@ -1027,95 +1030,95 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1">
-        <v>3910</v>
+        <v>4340</v>
       </c>
       <c r="C8" s="1">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1">
-        <v>3780</v>
+        <v>3990</v>
       </c>
       <c r="C9" s="1">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1">
-        <v>3770</v>
+        <v>3800</v>
       </c>
       <c r="C10" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1123,28 +1126,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
-        <v>3600</v>
+        <v>3770</v>
       </c>
       <c r="C11" s="1">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1155,13 +1158,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>3280</v>
+        <v>3600</v>
       </c>
       <c r="C12" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1170,16 +1173,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1187,31 +1190,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
-        <v>3200</v>
+        <v>3280</v>
       </c>
       <c r="C13" s="1">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1219,31 +1222,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>3160</v>
+        <v>3200</v>
       </c>
       <c r="C14" s="1">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1251,95 +1254,95 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1">
-        <v>2730</v>
+        <v>3130</v>
       </c>
       <c r="C15" s="1">
         <v>74</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
-        <v>2620</v>
+        <v>2730</v>
       </c>
       <c r="C16" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1">
-        <v>2470</v>
+        <v>2620</v>
       </c>
       <c r="C17" s="1">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -1347,31 +1350,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1">
-        <v>2460</v>
+        <v>2590</v>
       </c>
       <c r="C18" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1379,13 +1382,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>2440</v>
+        <v>2550</v>
       </c>
       <c r="C19" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1394,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G19" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1406,68 +1409,68 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
-        <v>2230</v>
+        <v>2470</v>
       </c>
       <c r="C20" s="1">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>1920</v>
+        <v>2440</v>
       </c>
       <c r="C21" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1475,25 +1478,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
-        <v>1760</v>
+        <v>2230</v>
       </c>
       <c r="C22" s="1">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1510,22 +1513,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1690</v>
+        <v>2220</v>
       </c>
       <c r="C23" s="1">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1542,16 +1545,16 @@
         <v>12</v>
       </c>
       <c r="B24" s="1">
-        <v>1610</v>
+        <v>1880</v>
       </c>
       <c r="C24" s="1">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -1571,118 +1574,118 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1">
-        <v>1560</v>
+        <v>1760</v>
       </c>
       <c r="C25" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G25" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1">
-        <v>1510</v>
+        <v>1620</v>
       </c>
       <c r="C26" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="C27" s="1">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
         <v>4</v>
       </c>
-      <c r="E27" s="1">
-        <v>11</v>
-      </c>
-      <c r="F27" s="1">
-        <v>17</v>
-      </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1">
-        <v>1470</v>
+        <v>1510</v>
       </c>
       <c r="C28" s="1">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1699,22 +1702,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1">
-        <v>1120</v>
+        <v>1470</v>
       </c>
       <c r="C29" s="1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F29" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1723,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -1731,31 +1734,31 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
-        <v>980</v>
+        <v>1160</v>
       </c>
       <c r="C30" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <v>12</v>
       </c>
       <c r="F30" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -1763,31 +1766,31 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="C31" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -1795,89 +1798,89 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="C32" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1">
+        <v>970</v>
+      </c>
+      <c r="C33" s="1">
         <v>24</v>
       </c>
-      <c r="B33" s="1">
-        <v>930</v>
-      </c>
-      <c r="C33" s="1">
-        <v>19</v>
-      </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G33" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1">
-        <v>920</v>
+        <v>970</v>
       </c>
       <c r="C34" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -1891,22 +1894,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="C35" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F35" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1915,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -1923,54 +1926,54 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="C36" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F36" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="C37" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1979,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -1987,22 +1990,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="C38" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -2019,25 +2022,25 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="C39" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -2051,31 +2054,31 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="C40" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -2147,45 +2150,45 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="C43" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="C44" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -2194,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G44" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -2211,13 +2214,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="C45" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -2226,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -2243,34 +2246,34 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="C46" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2307,13 +2310,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="C48" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -2322,39 +2325,39 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="C49" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -2363,42 +2366,42 @@
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B50" s="1">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="C50" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2438,10 +2441,10 @@
         <v>23</v>
       </c>
       <c r="B52" s="1">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="C52" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -2450,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2531,54 +2534,54 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B55" s="1">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C55" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B56" s="1">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="C56" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2587,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -2595,22 +2598,22 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="C57" s="1">
         <v>14</v>
       </c>
       <c r="D57" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2619,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1">
         <v>0</v>
@@ -2627,22 +2630,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="C58" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2651,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -2659,28 +2662,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="C59" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -2691,31 +2694,31 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B60" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C60" s="1">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
         <v>7</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>4</v>
-      </c>
-      <c r="G60" s="1">
-        <v>3</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
       </c>
       <c r="J60" s="1">
         <v>0</v>
@@ -2723,31 +2726,31 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B61" s="1">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="C61" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -2755,25 +2758,25 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B62" s="1">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C62" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
         <v>4</v>
       </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -2787,22 +2790,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B63" s="1">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C63" s="1">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
         <v>7</v>
       </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
       <c r="F63" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2811,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -2819,22 +2822,22 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C64" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2851,10 +2854,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C65" s="1">
         <v>7</v>
@@ -2863,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2883,22 +2886,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C66" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2907,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -2915,10 +2918,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C67" s="1">
         <v>5</v>
@@ -2930,42 +2933,42 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B68" s="1">
         <v>240</v>
       </c>
       <c r="C68" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F68" s="1">
         <v>1</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -2974,12 +2977,12 @@
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1">
         <v>240</v>
@@ -2988,13 +2991,13 @@
         <v>8</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -3011,22 +3014,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B70" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C70" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
         <v>8</v>
       </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -3043,28 +3046,28 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C71" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
@@ -3139,22 +3142,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C74" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -3171,22 +3174,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="B75" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C75" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -3195,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -3203,13 +3206,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1">
         <v>160</v>
       </c>
       <c r="C76" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -3218,30 +3221,30 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="B77" s="1">
         <v>160</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -3250,48 +3253,48 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B78" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C78" s="1">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
         <v>3</v>
       </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
       <c r="G78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -3299,28 +3302,28 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1">
         <v>150</v>
       </c>
       <c r="C79" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -3491,22 +3494,22 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B85" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C85" s="1">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0</v>
-      </c>
       <c r="F85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1">
         <v>0</v>
@@ -3523,22 +3526,22 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B86" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
@@ -3550,15 +3553,15 @@
         <v>0</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B87" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -3567,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -3582,12 +3585,12 @@
         <v>0</v>
       </c>
       <c r="J87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B88" s="1">
         <v>30</v>
@@ -3619,19 +3622,19 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -3651,7 +3654,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -3683,7 +3686,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -3715,7 +3718,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -3747,7 +3750,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -3779,7 +3782,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -4002,7 +4005,9 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B101" s="1">
         <v>0</v>
       </c>

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B27C70-B9E0-4D4A-9570-CFA0CA5D1F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8B09C6-211F-494C-B235-7805E1BE151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
+    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDABA927-A938-4F24-8053-A4194B1C04A2}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,10 +841,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>12740</v>
+        <v>12820</v>
       </c>
       <c r="C2" s="1">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G2" s="1">
         <v>110</v>
@@ -873,10 +873,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>10100</v>
+        <v>10790</v>
       </c>
       <c r="C3" s="1">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -894,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>8840</v>
+        <v>9610</v>
       </c>
       <c r="C4" s="1">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -917,16 +917,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1">
         <v>45</v>
@@ -937,10 +937,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>7480</v>
+        <v>7530</v>
       </c>
       <c r="C5" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -961,18 +961,18 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
-        <v>4840</v>
+        <v>6680</v>
       </c>
       <c r="C6" s="1">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -981,30 +981,30 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
-        <v>4450</v>
+        <v>4840</v>
       </c>
       <c r="C7" s="1">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1013,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1033,10 +1033,10 @@
         <v>61</v>
       </c>
       <c r="B8" s="1">
-        <v>4340</v>
+        <v>4710</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1">
         <v>9</v>
@@ -1054,30 +1054,30 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>3990</v>
+        <v>4450</v>
       </c>
       <c r="C9" s="1">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1086,71 +1086,71 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1">
-        <v>3800</v>
+        <v>4150</v>
       </c>
       <c r="C10" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
-        <v>3770</v>
+        <v>3990</v>
       </c>
       <c r="C11" s="1">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1158,28 +1158,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>3600</v>
+        <v>3770</v>
       </c>
       <c r="C12" s="1">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1190,13 +1190,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>3280</v>
+        <v>3600</v>
       </c>
       <c r="C13" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1205,16 +1205,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1222,31 +1222,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
-        <v>3200</v>
+        <v>3280</v>
       </c>
       <c r="C14" s="1">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1254,89 +1254,89 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
-        <v>3130</v>
+        <v>3240</v>
       </c>
       <c r="C15" s="1">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1">
-        <v>2730</v>
+        <v>2970</v>
       </c>
       <c r="C16" s="1">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
-        <v>2620</v>
+        <v>2930</v>
       </c>
       <c r="C17" s="1">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1345,36 +1345,36 @@
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
-        <v>2590</v>
+        <v>2730</v>
       </c>
       <c r="C18" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>59</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1">
-        <v>42</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>7</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>2550</v>
+        <v>2630</v>
       </c>
       <c r="C19" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1">
         <v>6</v>
@@ -1414,31 +1414,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1">
-        <v>2470</v>
+        <v>2620</v>
       </c>
       <c r="C20" s="1">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -1446,31 +1446,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1">
-        <v>2440</v>
+        <v>2590</v>
       </c>
       <c r="C21" s="1">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G21" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1478,31 +1478,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
-        <v>2230</v>
+        <v>2440</v>
       </c>
       <c r="C22" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -1510,25 +1510,25 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
-        <v>2220</v>
+        <v>2350</v>
       </c>
       <c r="C23" s="1">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1542,31 +1542,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
-        <v>1880</v>
+        <v>2230</v>
       </c>
       <c r="C24" s="1">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -1766,25 +1766,25 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
-        <v>980</v>
+        <v>1060</v>
       </c>
       <c r="C31" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F31" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -1798,71 +1798,71 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
-        <v>980</v>
+        <v>1040</v>
       </c>
       <c r="C32" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G32" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="C33" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1">
         <v>970</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -1894,25 +1894,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B35" s="1">
-        <v>920</v>
+        <v>970</v>
       </c>
       <c r="C35" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -1926,22 +1926,22 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="C36" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E36" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F36" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -1958,22 +1958,22 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="C37" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -2054,31 +2054,31 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="C40" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
         <v>8</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -2086,13 +2086,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B41" s="1">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="C41" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2118,63 +2118,63 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="C42" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="C43" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J43" s="1">
         <v>2</v>
@@ -2182,45 +2182,45 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="C44" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="C45" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G45" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="C46" s="1">
         <v>17</v>
@@ -2261,48 +2261,48 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B47" s="1">
-        <v>610</v>
+        <v>690</v>
       </c>
       <c r="C47" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -2310,13 +2310,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="C48" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2334,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B49" s="1">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="C49" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -2357,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J49" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,10 +2377,10 @@
         <v>66</v>
       </c>
       <c r="B50" s="1">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="C50" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -2406,57 +2406,57 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="C51" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G51" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B52" s="1">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="C52" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D52" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
         <v>5</v>
       </c>
-      <c r="F52" s="1">
-        <v>7</v>
-      </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -2470,26 +2470,26 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="C53" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
         <v>8</v>
       </c>
-      <c r="F53" s="1">
-        <v>2</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
@@ -2497,36 +2497,36 @@
         <v>1</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B54" s="1">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C54" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
@@ -2601,16 +2601,16 @@
         <v>64</v>
       </c>
       <c r="B57" s="1">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="C57" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>79</v>
       </c>
       <c r="B58" s="1">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="C58" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
@@ -2662,22 +2662,22 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="C59" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D59" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2694,22 +2694,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="C60" s="1">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1">
         <v>8</v>
       </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J60" s="1">
         <v>0</v>
@@ -2726,31 +2726,31 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1">
         <v>320</v>
       </c>
       <c r="C61" s="1">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
         <v>7</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>2</v>
-      </c>
-      <c r="G61" s="1">
-        <v>3</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B62" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C62" s="1">
         <v>7</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1">
         <v>3</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -2793,16 +2793,16 @@
         <v>84</v>
       </c>
       <c r="B63" s="1">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="C63" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -2822,25 +2822,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B64" s="1">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C64" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D64" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
         <v>4</v>
       </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -2854,22 +2854,22 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B65" s="1">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C65" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C66" s="1">
         <v>7</v>
@@ -2898,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -3334,26 +3334,26 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B80" s="1">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C80" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
         <v>2</v>
       </c>
-      <c r="G80" s="1">
-        <v>0</v>
-      </c>
       <c r="H80" s="1">
         <v>0</v>
       </c>
@@ -3361,15 +3361,15 @@
         <v>0</v>
       </c>
       <c r="J80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B81" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C81" s="1">
         <v>4</v>
@@ -3378,10 +3378,10 @@
         <v>1</v>
       </c>
       <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
         <v>2</v>
-      </c>
-      <c r="F81" s="1">
-        <v>1</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
@@ -3398,22 +3398,22 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B82" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C82" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
@@ -3430,25 +3430,25 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B83" s="1">
         <v>100</v>
       </c>
       <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="1">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0</v>
-      </c>
-      <c r="F83" s="1">
-        <v>0</v>
-      </c>
       <c r="G83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">

--- a/Results_Castle.xlsx
+++ b/Results_Castle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8B09C6-211F-494C-B235-7805E1BE151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECD51C8-77E5-4C8B-864F-F5DE4F2AA092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{88381816-8FC2-4E31-B328-F2963582BC1A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>Eariing</t>
-  </si>
-  <si>
-    <t>Noli</t>
   </si>
   <si>
     <t>Ndabox</t>
@@ -762,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDABA927-A938-4F24-8053-A4194B1C04A2}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:J101"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -873,10 +870,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>10790</v>
+        <v>10930</v>
       </c>
       <c r="C3" s="1">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -894,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -905,10 +902,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>9610</v>
+        <v>9730</v>
       </c>
       <c r="C4" s="1">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -917,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G4" s="1">
         <v>21</v>
@@ -937,10 +934,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>7530</v>
+        <v>7630</v>
       </c>
       <c r="C5" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -961,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -969,10 +966,10 @@
         <v>63</v>
       </c>
       <c r="B6" s="1">
-        <v>6680</v>
+        <v>7380</v>
       </c>
       <c r="C6" s="1">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -993,18 +990,18 @@
         <v>94</v>
       </c>
       <c r="J6" s="1">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1">
-        <v>4840</v>
+        <v>6740</v>
       </c>
       <c r="C7" s="1">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1013,30 +1010,30 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
-        <v>4710</v>
+        <v>4840</v>
       </c>
       <c r="C8" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1045,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1158,28 +1155,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1">
-        <v>3770</v>
+        <v>3790</v>
       </c>
       <c r="C12" s="1">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1190,28 +1187,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>3600</v>
+        <v>3770</v>
       </c>
       <c r="C13" s="1">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1222,13 +1219,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>3280</v>
+        <v>3600</v>
       </c>
       <c r="C14" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1237,16 +1234,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1254,31 +1251,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
-        <v>3240</v>
+        <v>3280</v>
       </c>
       <c r="C15" s="1">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1286,95 +1283,95 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>2970</v>
+        <v>3240</v>
       </c>
       <c r="C16" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
-        <v>2930</v>
+        <v>2970</v>
       </c>
       <c r="C17" s="1">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>2730</v>
+        <v>2950</v>
       </c>
       <c r="C18" s="1">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1382,54 +1379,54 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
-        <v>2630</v>
+        <v>2730</v>
       </c>
       <c r="C19" s="1">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="C20" s="1">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1">
         <v>6</v>
@@ -1438,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -1446,63 +1443,63 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1">
-        <v>2590</v>
+        <v>2620</v>
       </c>
       <c r="C21" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1">
-        <v>2440</v>
+        <v>2590</v>
       </c>
       <c r="C22" s="1">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -1513,16 +1510,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="1">
-        <v>2350</v>
+        <v>2530</v>
       </c>
       <c r="C23" s="1">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1542,31 +1539,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
-        <v>2230</v>
+        <v>2440</v>
       </c>
       <c r="C24" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -1574,25 +1571,25 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1">
-        <v>1760</v>
+        <v>2230</v>
       </c>
       <c r="C25" s="1">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -1606,118 +1603,118 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>1620</v>
+        <v>1790</v>
       </c>
       <c r="C26" s="1">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1">
-        <v>1560</v>
+        <v>1760</v>
       </c>
       <c r="C27" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
-        <v>1510</v>
+        <v>1620</v>
       </c>
       <c r="C28" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1">
-        <v>1470</v>
+        <v>1570</v>
       </c>
       <c r="C29" s="1">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1734,55 +1731,55 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1">
-        <v>1160</v>
+        <v>1560</v>
       </c>
       <c r="C30" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>1060</v>
+        <v>1200</v>
       </c>
       <c r="C31" s="1">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1">
         <v>20</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -1798,25 +1795,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1">
-        <v>1040</v>
+        <v>1120</v>
       </c>
       <c r="C32" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F32" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1830,63 +1827,63 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1">
-        <v>980</v>
+        <v>1060</v>
       </c>
       <c r="C33" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="C34" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -1894,63 +1891,63 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="C35" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="C36" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -1958,31 +1955,31 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="C37" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -1990,54 +1987,54 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="C38" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1">
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="C39" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F39" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2046,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -2054,22 +2051,22 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="C40" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2078,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -2086,25 +2083,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="C41" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2118,31 +2115,31 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B42" s="1">
-        <v>780</v>
+        <v>850</v>
       </c>
       <c r="C42" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -2150,34 +2147,34 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1">
-        <v>770</v>
+        <v>840</v>
       </c>
       <c r="C43" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2185,19 +2182,19 @@
         <v>85</v>
       </c>
       <c r="B44" s="1">
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="C44" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>4</v>
       </c>
       <c r="F44" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -2214,22 +2211,22 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1">
-        <v>720</v>
+        <v>790</v>
       </c>
       <c r="C45" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F45" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2246,13 +2243,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="C46" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -2261,62 +2258,62 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="C47" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
         <v>13</v>
       </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="C48" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -2325,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2342,13 +2339,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>670</v>
+        <v>720</v>
       </c>
       <c r="C49" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -2357,48 +2354,48 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>8</v>
+      </c>
+      <c r="J49" s="1">
         <v>3</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1">
-        <v>11</v>
-      </c>
-      <c r="J49" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="C50" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -2406,54 +2403,54 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B51" s="1">
-        <v>560</v>
+        <v>670</v>
       </c>
       <c r="C51" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
         <v>3</v>
       </c>
-      <c r="E51" s="1">
-        <v>6</v>
-      </c>
-      <c r="F51" s="1">
-        <v>8</v>
-      </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B52" s="1">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="C52" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -2462,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" s="1">
         <v>0</v>
@@ -2470,63 +2467,63 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="C53" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G53" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="C54" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D54" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E54" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F54" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
@@ -2534,13 +2531,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B55" s="1">
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="C55" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -2549,39 +2546,39 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="1">
         <v>4</v>
       </c>
       <c r="J55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B56" s="1">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="C56" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2590,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -2598,25 +2595,25 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="C57" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -2625,27 +2622,27 @@
         <v>1</v>
       </c>
       <c r="J57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C58" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2662,23 +2659,23 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B59" s="1">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C59" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1">
         <v>2</v>
       </c>
-      <c r="F59" s="1">
-        <v>9</v>
-      </c>
       <c r="G59" s="1">
         <v>0</v>
       </c>
@@ -2686,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="1">
         <v>0</v>
@@ -2694,22 +2691,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B60" s="1">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C60" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D60" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2726,22 +2723,22 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B61" s="1">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="C61" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2750,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
@@ -2758,31 +2755,31 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B62" s="1">
         <v>320</v>
       </c>
       <c r="C62" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
         <v>2</v>
-      </c>
-      <c r="G62" s="1">
-        <v>3</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>
@@ -2790,31 +2787,31 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B63" s="1">
         <v>320</v>
       </c>
       <c r="C63" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
@@ -2822,31 +2819,31 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B64" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C64" s="1">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
         <v>7</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>4</v>
-      </c>
-      <c r="G64" s="1">
-        <v>3</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
@@ -2854,25 +2851,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C65" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
         <v>4</v>
       </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -2886,22 +2883,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B66" s="1">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C66" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2918,28 +2915,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B67" s="1">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C67" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G67" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
@@ -2950,10 +2947,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C68" s="1">
         <v>5</v>
@@ -2965,56 +2962,56 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="B69" s="1">
         <v>240</v>
       </c>
       <c r="C69" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
       </c>
       <c r="J69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1">
         <v>240</v>
@@ -3023,13 +3020,13 @@
         <v>8</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -3046,22 +3043,22 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B71" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C71" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
         <v>8</v>
       </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -3078,10 +3075,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B72" s="1">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C72" s="1">
         <v>5</v>
@@ -3093,39 +3090,39 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
         <v>2</v>
       </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
       <c r="H72" s="1">
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B73" s="1">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C73" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -3134,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -3142,22 +3139,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C74" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -3166,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
@@ -3174,22 +3171,22 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C75" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D75" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -3198,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -3206,22 +3203,22 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C76" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F76" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
@@ -3230,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -3238,34 +3235,34 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C77" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3302,13 +3299,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B79" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C79" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -3317,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -3366,28 +3363,28 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B81" s="1">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C81" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -3398,10 +3395,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C82" s="1">
         <v>4</v>
@@ -3410,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
         <v>2</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
@@ -3430,22 +3427,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B83" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C83" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" s="1">
         <v>0</v>
@@ -3462,23 +3459,23 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B84" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="1">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1">
-        <v>1</v>
-      </c>
       <c r="G84" s="1">
         <v>0</v>
       </c>
@@ -3486,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="1">
         <v>0</v>
@@ -3590,7 +3587,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1">
         <v>30</v>
@@ -3622,7 +3619,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B89" s="1">
         <v>30</v>
@@ -3654,7 +3651,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -3686,7 +3683,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -3718,7 +3715,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -3750,7 +3747,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -3782,7 +3779,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -3846,7 +3843,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -3878,7 +3875,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -3910,7 +3907,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -3942,7 +3939,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -3974,7 +3971,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -4005,36 +4002,16 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B101" s="1">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0</v>
-      </c>
-      <c r="I101" s="1">
-        <v>0</v>
-      </c>
-      <c r="J101" s="1">
-        <v>0</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
@@ -4047,8 +4024,8 @@
       <c r="H102" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J101">
-    <sortCondition descending="1" ref="B2:B101"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J100">
+    <sortCondition descending="1" ref="B2:B100"/>
   </sortState>
   <conditionalFormatting sqref="B2:J101">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
